--- a/xlsx/加拿大_intext.xlsx
+++ b/xlsx/加拿大_intext.xlsx
@@ -29,7 +29,7 @@
     <t>加拿大国旗</t>
   </si>
   <si>
-    <t>政策_政策_行政_加拿大</t>
+    <t>体育运动_体育运动_奥林匹克运动会_加拿大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9B%BD%E5%BE%BD</t>
